--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2380.286129087414</v>
+        <v>848.9921397190411</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.32717499560527</v>
+        <v>34.30000008383183</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.434649759766</v>
+        <v>12.29065144902804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.643603851588951</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1799.469999999986</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.28</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>10.5504380193338</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.41539744121283</v>
+        <v>19.31116002552197</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.01720891576282</v>
+        <v>17.70934855097198</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.510903778477015</v>
+        <v>22.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.68569098426262</v>
+        <v>25.20683425157666</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,155 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>191.1249999999995</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>180.15</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>184.089999999998</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>194.6049999999994</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>194.1099999999981</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>272.1799999999986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>263.25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>252.0899999999971</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8449999999985</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>271.8299999999973</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>146.6849999999997</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>141.6149999999991</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>142.7199999999983</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>148.7899999999997</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>148.2749999999984</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>272.1799999999986</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>263.25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>252.0899999999971</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>270.8449999999985</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>271.8299999999973</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6100000000003</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.5950000000003</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.2400000000003</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4400000000003</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>113.6550000000003</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>172.1799999999986</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>163.25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>152.0899999999971</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>170.8449999999985</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>171.8299999999973</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6100000000003</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5950000000003</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.24000000000029</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4400000000003</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65500000000029</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2220,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2305,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2316,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2327,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2338,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2349,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2360,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2371,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2382,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2393,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2404,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2415,7 +2220,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2426,7 +2231,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2437,7 +2242,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2448,7 +2253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2459,67 +2264,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
